--- a/MvcMovie/Uploads/Excels/System.Func`1[System.String].xlsx
+++ b/MvcMovie/Uploads/Excels/System.Func`1[System.String].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{913B09C1-6CD3-4565-8C5E-DBC70D7D97EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B637BB2-9147-41FF-A632-3A70BE2B5F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{3E272768-89D2-4801-9614-0B933C62179C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3E272768-89D2-4801-9614-0B933C62179C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,45 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
-    <t>PersonId</t>
-  </si>
-  <si>
     <t>FullName</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>PS001</t>
-  </si>
-  <si>
-    <t>PS002</t>
-  </si>
-  <si>
-    <t>PS003</t>
-  </si>
-  <si>
-    <t>PS004</t>
-  </si>
-  <si>
-    <t>PS005</t>
-  </si>
-  <si>
-    <t>PS006</t>
-  </si>
-  <si>
-    <t>PS007</t>
-  </si>
-  <si>
-    <t>PS008</t>
-  </si>
-  <si>
-    <t>PS009</t>
-  </si>
-  <si>
-    <t>PS010</t>
-  </si>
-  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
@@ -123,13 +90,46 @@
   </si>
   <si>
     <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>StudentId</t>
+  </si>
+  <si>
+    <t>SD001</t>
+  </si>
+  <si>
+    <t>SD002</t>
+  </si>
+  <si>
+    <t>SD003</t>
+  </si>
+  <si>
+    <t>SD004</t>
+  </si>
+  <si>
+    <t>SD005</t>
+  </si>
+  <si>
+    <t>SD006</t>
+  </si>
+  <si>
+    <t>SD007</t>
+  </si>
+  <si>
+    <t>SD008</t>
+  </si>
+  <si>
+    <t>SD009</t>
+  </si>
+  <si>
+    <t>SD010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +195,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -534,192 +534,193 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
